--- a/database/industries/shoyande/shegol/income/quarterly/rial_cumulative.xlsx
+++ b/database/industries/shoyande/shegol/income/quarterly/rial_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\shegol\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\shegol\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C7AF96-1088-4C74-AFC0-C1FBE2C56B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E69EC19-967B-4D88-97EF-26E859FAE1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>9 ماهه منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>12 ماهه منتهی به 1401/09</t>
   </si>
   <si>
+    <t>3 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-07-30 (3)</t>
-  </si>
-  <si>
     <t>1400-11-27 (11)</t>
   </si>
   <si>
@@ -85,10 +82,10 @@
     <t>1401-08-06 (3)</t>
   </si>
   <si>
-    <t>1401-10-30 (7)</t>
-  </si>
-  <si>
-    <t>1401-01-30</t>
+    <t>1401-12-16 (8)</t>
+  </si>
+  <si>
+    <t>1402-02-03 (2)</t>
   </si>
   <si>
     <t>1401-06-15 (2)</t>
@@ -97,7 +94,10 @@
     <t>1401-08-06</t>
   </si>
   <si>
-    <t>1401-10-30</t>
+    <t>1402-02-03 (3)</t>
+  </si>
+  <si>
+    <t>1402-02-03</t>
   </si>
   <si>
     <t>فروش</t>
@@ -619,19 +619,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="8" width="28" customWidth="1"/>
-    <col min="9" max="9" width="29" customWidth="1"/>
-    <col min="10" max="12" width="28" customWidth="1"/>
-    <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="11" width="28" customWidth="1"/>
+    <col min="12" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -645,7 +645,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -661,7 +661,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -677,7 +677,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -691,7 +691,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -707,7 +707,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -723,7 +723,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -737,7 +737,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -773,7 +773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -809,7 +809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -823,151 +823,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>5617997</v>
+        <v>8195863</v>
       </c>
       <c r="E11" s="13">
-        <v>8195863</v>
+        <v>2469916</v>
       </c>
       <c r="F11" s="13">
-        <v>2469916</v>
+        <v>5018726</v>
       </c>
       <c r="G11" s="13">
-        <v>5018726</v>
+        <v>8503541</v>
       </c>
       <c r="H11" s="13">
-        <v>8503541</v>
+        <v>11206859</v>
       </c>
       <c r="I11" s="13">
-        <v>11206859</v>
+        <v>2319378</v>
       </c>
       <c r="J11" s="13">
-        <v>2319379</v>
+        <v>3485694</v>
       </c>
       <c r="K11" s="13">
-        <v>3485694</v>
+        <v>6704606</v>
       </c>
       <c r="L11" s="13">
-        <v>6704606</v>
+        <v>11234217</v>
       </c>
       <c r="M11" s="13">
-        <v>11234217</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>4762946</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-3385023</v>
+        <v>-4851597</v>
       </c>
       <c r="E12" s="11">
-        <v>-4851597</v>
+        <v>-1695770</v>
       </c>
       <c r="F12" s="11">
-        <v>-1695770</v>
+        <v>-3619987</v>
       </c>
       <c r="G12" s="11">
-        <v>-3619987</v>
+        <v>-5974089</v>
       </c>
       <c r="H12" s="11">
-        <v>-5974089</v>
+        <v>-8023476</v>
       </c>
       <c r="I12" s="11">
-        <v>-8023476</v>
+        <v>-2040833</v>
       </c>
       <c r="J12" s="11">
-        <v>-2040833</v>
+        <v>-2912462</v>
       </c>
       <c r="K12" s="11">
-        <v>-2912462</v>
+        <v>-5165847</v>
       </c>
       <c r="L12" s="11">
-        <v>-5165847</v>
+        <v>-8366153</v>
       </c>
       <c r="M12" s="11">
-        <v>-8366153</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-3732414</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>2232974</v>
+        <v>3344266</v>
       </c>
       <c r="E13" s="15">
-        <v>3344266</v>
+        <v>774146</v>
       </c>
       <c r="F13" s="15">
-        <v>774146</v>
+        <v>1398739</v>
       </c>
       <c r="G13" s="15">
-        <v>1398739</v>
+        <v>2529452</v>
       </c>
       <c r="H13" s="15">
-        <v>2529452</v>
+        <v>3183383</v>
       </c>
       <c r="I13" s="15">
-        <v>3183383</v>
+        <v>278545</v>
       </c>
       <c r="J13" s="15">
-        <v>278546</v>
+        <v>573232</v>
       </c>
       <c r="K13" s="15">
-        <v>573232</v>
+        <v>1538759</v>
       </c>
       <c r="L13" s="15">
-        <v>1538759</v>
+        <v>2868064</v>
       </c>
       <c r="M13" s="15">
-        <v>2868064</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1030532</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-564309</v>
+        <v>-814284</v>
       </c>
       <c r="E14" s="11">
-        <v>-814284</v>
+        <v>-340351</v>
       </c>
       <c r="F14" s="11">
-        <v>-340351</v>
+        <v>-647878</v>
       </c>
       <c r="G14" s="11">
-        <v>-647878</v>
+        <v>-970850</v>
       </c>
       <c r="H14" s="11">
-        <v>-970850</v>
+        <v>-1414297</v>
       </c>
       <c r="I14" s="11">
-        <v>-1414297</v>
+        <v>-244782</v>
       </c>
       <c r="J14" s="11">
-        <v>-244782</v>
+        <v>-401953</v>
       </c>
       <c r="K14" s="11">
-        <v>-401953</v>
+        <v>-612489</v>
       </c>
       <c r="L14" s="11">
-        <v>-612489</v>
+        <v>-1038150</v>
       </c>
       <c r="M14" s="11">
-        <v>-920410</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-352062</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1003,259 +1003,259 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>28902</v>
+        <v>26270</v>
       </c>
       <c r="E16" s="11">
-        <v>26270</v>
+        <v>17369</v>
       </c>
       <c r="F16" s="11">
-        <v>17369</v>
+        <v>18035</v>
       </c>
       <c r="G16" s="11">
-        <v>18035</v>
+        <v>4161</v>
       </c>
       <c r="H16" s="11">
-        <v>4161</v>
+        <v>3164</v>
       </c>
       <c r="I16" s="11">
-        <v>3164</v>
+        <v>890</v>
       </c>
       <c r="J16" s="11">
-        <v>890</v>
+        <v>-357</v>
       </c>
       <c r="K16" s="11">
-        <v>-357</v>
+        <v>1967</v>
       </c>
       <c r="L16" s="11">
-        <v>1967</v>
+        <v>8721</v>
       </c>
       <c r="M16" s="11">
-        <v>8721</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-24655</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>1697567</v>
+        <v>2556252</v>
       </c>
       <c r="E17" s="15">
-        <v>2556252</v>
+        <v>451164</v>
       </c>
       <c r="F17" s="15">
-        <v>451164</v>
+        <v>768896</v>
       </c>
       <c r="G17" s="15">
-        <v>768896</v>
+        <v>1562763</v>
       </c>
       <c r="H17" s="15">
-        <v>1562763</v>
+        <v>1772250</v>
       </c>
       <c r="I17" s="15">
-        <v>1772250</v>
+        <v>34653</v>
       </c>
       <c r="J17" s="15">
-        <v>34654</v>
+        <v>170922</v>
       </c>
       <c r="K17" s="15">
-        <v>170922</v>
+        <v>928237</v>
       </c>
       <c r="L17" s="15">
-        <v>928237</v>
+        <v>1838635</v>
       </c>
       <c r="M17" s="15">
-        <v>1956375</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>653815</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-65239</v>
+        <v>-117381</v>
       </c>
       <c r="E18" s="11">
-        <v>-117381</v>
+        <v>-90348</v>
       </c>
       <c r="F18" s="11">
-        <v>-90348</v>
+        <v>-245230</v>
       </c>
       <c r="G18" s="11">
-        <v>-245230</v>
+        <v>-429880</v>
       </c>
       <c r="H18" s="11">
-        <v>-429880</v>
+        <v>-633422</v>
       </c>
       <c r="I18" s="11">
-        <v>-633422</v>
+        <v>-211262</v>
       </c>
       <c r="J18" s="11">
-        <v>-211263</v>
+        <v>-401495</v>
       </c>
       <c r="K18" s="11">
-        <v>-401495</v>
+        <v>-542861</v>
       </c>
       <c r="L18" s="11">
-        <v>-542861</v>
+        <v>-911067</v>
       </c>
       <c r="M18" s="11">
-        <v>-911067</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-113077</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>13427</v>
+        <v>57272</v>
       </c>
       <c r="E19" s="13">
-        <v>57272</v>
+        <v>7967</v>
       </c>
       <c r="F19" s="13">
-        <v>7967</v>
+        <v>91806</v>
       </c>
       <c r="G19" s="13">
-        <v>91806</v>
+        <v>96790</v>
       </c>
       <c r="H19" s="13">
-        <v>96790</v>
+        <v>43927</v>
       </c>
       <c r="I19" s="13">
-        <v>43927</v>
+        <v>3355</v>
       </c>
       <c r="J19" s="13">
-        <v>3355</v>
+        <v>4491</v>
       </c>
       <c r="K19" s="13">
-        <v>4491</v>
+        <v>9907</v>
       </c>
       <c r="L19" s="13">
-        <v>9907</v>
+        <v>17654</v>
       </c>
       <c r="M19" s="13">
-        <v>17654</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>1645755</v>
+        <v>2496143</v>
       </c>
       <c r="E20" s="17">
-        <v>2496143</v>
+        <v>368783</v>
       </c>
       <c r="F20" s="17">
-        <v>368783</v>
+        <v>615472</v>
       </c>
       <c r="G20" s="17">
-        <v>615472</v>
+        <v>1229673</v>
       </c>
       <c r="H20" s="17">
-        <v>1229673</v>
+        <v>1182755</v>
       </c>
       <c r="I20" s="17">
-        <v>1182755</v>
+        <v>-173254</v>
       </c>
       <c r="J20" s="17">
-        <v>-173254</v>
+        <v>-226082</v>
       </c>
       <c r="K20" s="17">
-        <v>-226082</v>
+        <v>395283</v>
       </c>
       <c r="L20" s="17">
-        <v>395283</v>
+        <v>945222</v>
       </c>
       <c r="M20" s="17">
-        <v>1062962</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>544342</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-306401</v>
+        <v>-440467</v>
       </c>
       <c r="E21" s="13">
-        <v>-440467</v>
+        <v>-71456</v>
       </c>
       <c r="F21" s="13">
-        <v>-71456</v>
+        <v>-152966</v>
       </c>
       <c r="G21" s="13">
-        <v>-152966</v>
+        <v>-170230</v>
       </c>
       <c r="H21" s="13">
-        <v>-170230</v>
+        <v>-199416</v>
       </c>
       <c r="I21" s="13">
-        <v>-199416</v>
+        <v>0</v>
       </c>
       <c r="J21" s="13">
-        <v>0</v>
+        <v>-100536</v>
       </c>
       <c r="K21" s="13">
-        <v>-100536</v>
+        <v>-172258</v>
       </c>
       <c r="L21" s="13">
-        <v>-172258</v>
+        <v>-241333</v>
       </c>
       <c r="M21" s="13">
-        <v>-337879</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-70606</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>1339354</v>
+        <v>2055676</v>
       </c>
       <c r="E22" s="17">
-        <v>2055676</v>
+        <v>297327</v>
       </c>
       <c r="F22" s="17">
-        <v>297327</v>
+        <v>462506</v>
       </c>
       <c r="G22" s="17">
-        <v>462506</v>
+        <v>1059443</v>
       </c>
       <c r="H22" s="17">
-        <v>1059443</v>
+        <v>983339</v>
       </c>
       <c r="I22" s="17">
-        <v>983339</v>
+        <v>-173254</v>
       </c>
       <c r="J22" s="17">
-        <v>-173254</v>
+        <v>-326618</v>
       </c>
       <c r="K22" s="17">
-        <v>-326618</v>
+        <v>223025</v>
       </c>
       <c r="L22" s="17">
-        <v>223025</v>
+        <v>703889</v>
       </c>
       <c r="M22" s="17">
-        <v>725083</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>473736</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
@@ -1291,94 +1291,94 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>1339354</v>
+        <v>2055676</v>
       </c>
       <c r="E24" s="17">
-        <v>2055676</v>
+        <v>297327</v>
       </c>
       <c r="F24" s="17">
-        <v>297327</v>
+        <v>462506</v>
       </c>
       <c r="G24" s="17">
-        <v>462506</v>
+        <v>1059443</v>
       </c>
       <c r="H24" s="17">
-        <v>1059443</v>
+        <v>983339</v>
       </c>
       <c r="I24" s="17">
-        <v>983339</v>
+        <v>-173254</v>
       </c>
       <c r="J24" s="17">
-        <v>-173254</v>
+        <v>-326618</v>
       </c>
       <c r="K24" s="17">
-        <v>-326618</v>
+        <v>223025</v>
       </c>
       <c r="L24" s="17">
-        <v>223025</v>
+        <v>703889</v>
       </c>
       <c r="M24" s="17">
-        <v>725083</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>473736</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>1339</v>
+        <v>791</v>
       </c>
       <c r="E25" s="13">
-        <v>791</v>
+        <v>114</v>
       </c>
       <c r="F25" s="13">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="G25" s="13">
-        <v>183</v>
+        <v>407</v>
       </c>
       <c r="H25" s="13">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="I25" s="13">
-        <v>378</v>
+        <v>-67</v>
       </c>
       <c r="J25" s="13">
-        <v>-67</v>
+        <v>-126</v>
       </c>
       <c r="K25" s="13">
-        <v>-126</v>
+        <v>86</v>
       </c>
       <c r="L25" s="13">
-        <v>86</v>
+        <v>271</v>
       </c>
       <c r="M25" s="13">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>1000000</v>
+        <v>2600000</v>
       </c>
       <c r="E26" s="11">
         <v>2600000</v>
       </c>
       <c r="F26" s="11">
+        <v>2523560</v>
+      </c>
+      <c r="G26" s="11">
         <v>2600000</v>
-      </c>
-      <c r="G26" s="11">
-        <v>2523560</v>
       </c>
       <c r="H26" s="11">
         <v>2600000</v>
@@ -1399,43 +1399,43 @@
         <v>2600000</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>515</v>
+        <v>791</v>
       </c>
       <c r="E27" s="13">
-        <v>791</v>
+        <v>114</v>
       </c>
       <c r="F27" s="13">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="G27" s="13">
-        <v>178</v>
+        <v>407</v>
       </c>
       <c r="H27" s="13">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="I27" s="13">
-        <v>378</v>
+        <v>-67</v>
       </c>
       <c r="J27" s="13">
-        <v>-67</v>
+        <v>-126</v>
       </c>
       <c r="K27" s="13">
-        <v>-126</v>
+        <v>86</v>
       </c>
       <c r="L27" s="13">
-        <v>86</v>
+        <v>271</v>
       </c>
       <c r="M27" s="13">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/database/industries/shoyande/shegol/income/quarterly/rial_cumulative.xlsx
+++ b/database/industries/shoyande/shegol/income/quarterly/rial_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\shegol\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\shoyande\shegol\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E69EC19-967B-4D88-97EF-26E859FAE1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB5FCDA-B5F5-4FE4-96B7-08A388FF9A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
